--- a/Data Atlet Pelatih/Database-Atlet.xlsx
+++ b/Data Atlet Pelatih/Database-Atlet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
     <t>nmevnt</t>
   </si>
   <si>
-    <t>juamdl</t>
-  </si>
-  <si>
     <t>cttnpres</t>
   </si>
   <si>
@@ -159,6 +156,12 @@
   </si>
   <si>
     <t>Krisna Febrianto</t>
+  </si>
+  <si>
+    <t>medali</t>
+  </si>
+  <si>
+    <t>juara</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR19"/>
+  <dimension ref="A1:AS19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -610,24 +613,25 @@
     <col min="29" max="29" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.77734375" customWidth="1"/>
+    <col min="34" max="34" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -672,8 +676,9 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS1" s="1"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -681,7 +686,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -708,16 +713,16 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>14</v>
@@ -732,16 +737,16 @@
         <v>8</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="V2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>10</v>
@@ -753,7 +758,7 @@
         <v>17</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>18</v>
@@ -763,31 +768,32 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="3" t="s">
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AJ2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL2" s="11"/>
       <c r="AM2" s="11"/>
       <c r="AN2" s="11"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="3" t="s">
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AR2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -828,36 +834,39 @@
         <v>21</v>
       </c>
       <c r="AF3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AH3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AK3" s="3" t="s">
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AN3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP3" s="3"/>
+      <c r="AP3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
-    </row>
-    <row r="4" spans="1:44" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS3" s="3"/>
+    </row>
+    <row r="4" spans="1:45" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -902,13 +911,14 @@
       <c r="AP4" s="3"/>
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS4" s="3"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -952,8 +962,9 @@
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS5" s="3"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1000,8 +1011,9 @@
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS6" s="3"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1048,8 +1060,9 @@
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS7" s="3"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1096,8 +1109,9 @@
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS8" s="3"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1144,8 +1158,9 @@
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS9" s="3"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1192,8 +1207,9 @@
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS10" s="3"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1240,8 +1256,9 @@
       <c r="AP11" s="3"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS11" s="3"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -1288,8 +1305,9 @@
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS12" s="3"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1336,8 +1354,9 @@
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS13" s="3"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -1384,8 +1403,9 @@
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS14" s="3"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -1432,8 +1452,9 @@
       <c r="AP15" s="3"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS15" s="3"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -1480,8 +1501,9 @@
       <c r="AP16" s="3"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS16" s="3"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -1528,8 +1550,9 @@
       <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS17" s="3"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -1576,8 +1599,9 @@
       <c r="AP18" s="3"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AS18" s="3"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -1624,11 +1648,12 @@
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="AB2:AH2"/>
-    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="AB2:AI2"/>
+    <mergeCell ref="AL2:AP2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
